--- a/admin/.previous_state_menu.xlsx
+++ b/admin/.previous_state_menu.xlsx
@@ -24,7 +24,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Основное меню</t>
+  </si>
+  <si>
+    <t>Холодные закуски</t>
+  </si>
+  <si>
+    <t>К пиву</t>
+  </si>
+  <si>
+    <t>Сельдь Бисмарк</t>
+  </si>
+  <si>
+    <t>Традиционное немецкое блюдо из маринованной сельди</t>
+  </si>
+  <si>
+    <t>Мясная тарелка</t>
+  </si>
+  <si>
+    <t>Рыбная тарелка</t>
+  </si>
+  <si>
+    <t>Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
+  </si>
+  <si>
+    <t>Рамен</t>
+  </si>
+  <si>
+    <t>Горячий рамен</t>
+  </si>
+  <si>
+    <t>Дайзу рамен</t>
+  </si>
+  <si>
+    <t>Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
+  </si>
+  <si>
+    <t>Унаги рамен</t>
+  </si>
+  <si>
+    <t>Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
+  </si>
+  <si>
+    <t>Чиизу Рамен</t>
+  </si>
+  <si>
+    <t>Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
+  </si>
+  <si>
+    <t>Алкогольное меню</t>
+  </si>
+  <si>
+    <t>Алкогольные напитки</t>
+  </si>
+  <si>
+    <t>Красные вина</t>
+  </si>
+  <si>
+    <t>Для романтичного вечера</t>
+  </si>
+  <si>
+    <t>Шемен де Пап ля Ноблесс</t>
+  </si>
+  <si>
+    <t>Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
+  </si>
+  <si>
+    <t>Рипароссо Монтепульчано</t>
+  </si>
+  <si>
+    <t>Вино красное, сухое</t>
+  </si>
+  <si>
+    <t>Кьянти, Серристори</t>
+  </si>
+  <si>
+    <t>Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
+  </si>
+  <si>
+    <t>Виски</t>
+  </si>
+  <si>
+    <t>Для интересных бесед</t>
+  </si>
+  <si>
+    <t>Джемисон</t>
+  </si>
+  <si>
+    <t>Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
+  </si>
+  <si>
+    <t>Джек Дэниелс</t>
+  </si>
+  <si>
+    <t>Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
+  </si>
+  <si>
+    <t>Чивас Ригал</t>
+  </si>
+  <si>
+    <t>Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
+  </si>
+  <si>
+    <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
+  </si>
+  <si>
+    <t>who is going to die</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -323,7 +432,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -337,148 +446,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="9">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4">
+        <v>215.36</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="3">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>265.57</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>166.47</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="3">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>168.25</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="3">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>132.88</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="3">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2700.79</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="3">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3100.33</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="3">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1850.42</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="3">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1">
+        <v>420.78</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="3">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
+        <v>440.11</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="3">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1">
+        <v>520.08000000000004</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="20" spans="1:6" ht="15.75" customHeight="1"/>
